--- a/test.xlsx
+++ b/test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="4560"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WebData" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="WebData" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
   <si>
     <t>Neuw. Marken-Einbauküche von Leicht, inkl. Bosch-Geräte (Kühl-/Gefrier-Kombischrank, Ofen m. Ceran-Kochfeld, Spülmaschine), Dunstabzug, Arbeitsplatte Holz-Optik, Flächen hell-beige, Hängeschränke 2x Doppeltür/3x Einzeltür, Maße &amp; Bilder auf Anfrage, Preis VS. % (01 62) 7 26 43 65</t>
   </si>
@@ -141,6 +141,284 @@
   </si>
   <si>
     <t>Kaufe alles vom 1. und 2. Weltkrieg Orden, auch uraltes Spielzeug, Märklin-Eisenbahnen, Bücher, sowie alles über alte Autos, Motorräder, Zeppeline usw., Tel. 0711-6405077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+	Suche von Anzeigen der Rubrik dies und das_x000D_
+</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Teilweise-Haushaltsaufloesung-im-Hof-am-Sa-29-6-von-10-16-v3-w1024-h-m131259.jpg</t>
+  </si>
+  <si>
+    <t>Teilweise Haushaltsauflösung im
+Hof am Sa., 29. 6., von 10 — 16 Uhr,
+TU, Haldenstr. 4: Kleinmöbel, Bücher,
+WK I u. WK II, Antikes, Spielsachen u.
+quer durch den Haushalt</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/GWW-Bierzeltgarniturbreiter-Tisch-67-cm-2-v3-w1024-h-m131287.jpg</t>
+  </si>
+  <si>
+    <t>GWW—Bierzeltgarnitur, breiter Tisch
+67 cm, 2 Bänke mit Lehne 220 cm
+lang, wie neu, VB 120 €, Tel. 07031
+233556</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/GUeNSTIG-ABZUGEBEN-LADOR-SA-DREHBARER-CHRISTBAUMSTAeNDER-v3-w1024-h-m131380.jpg</t>
+  </si>
+  <si>
+    <t>GÜNSTIG ABZUGEBEN LADOR
+SA DREHBARER CHRISTBAUM—
+STÄNDER MIT 4 LIEDERN 160.00
+EURO &amp; 015232097687</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Superguenstig-Alles-fuer-15-20-e-Da-Motorradbekleidung-Gr-v3-w1024-h-m131251.jpg</t>
+  </si>
+  <si>
+    <t>Supergünstig! Alles für 15—20 €&amp;!
+Da.—Motorradbekleidung, Gr. 38/40,
+Motorradzubehör, Sommerreifen o.F.
+(neuw., 165x65), Schlafsäcke, LuMa
+u.v.m. &amp; 0157 74633206 ab 18 Uhr</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/150-GEBR-ELEKTROGERAeTE-wwwdergebrauchtwarenmarktde-GWM-TUe-v3-w1024-h-m131252.jpg</t>
+  </si>
+  <si>
+    <t>150 GEBR. ELEKTROGERATE
+www.dergebrauchtwarenmarkt.de,
+GWM, TÜ—Bühl, Fronländer 22,
+(0 74 72) 94 76 83 , Mi., Fr., Sa.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Garagenflohmarkt-v3-w1024-h-m131286.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt, Sa., 29.6.19,
+14—18 Uhr, Haushalt, Weinbau, Land—
+wirtschaft. Schick, Schieferweg 11
+72119 Ammerbuch—Breitenholz</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Holzbett-Innova-Dormabel-mit-automatischem-Lattenrost-100-x-v3-w1024-h-m131292.jpg</t>
+  </si>
+  <si>
+    <t>Holzbett Innova Dormabel mit auto—
+matischem Lattenrost 100 x 200. VB
+250 € &amp; (07071) 49515</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Bandsaege-u-Rasentraktor-zu-verkaufen-v3-w1024-h-m131173.jpg</t>
+  </si>
+  <si>
+    <t>Bandsäge Rau ZM 600, sowie Ra—
+sentraktor, 15 PS mit Steitenauswurf
+Z 01 70/6543029</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Apple-IPAD-zu-verkaufen-v3-w1024-h-m131169.jpg</t>
+  </si>
+  <si>
+    <t>APPLE IPAD WI—Fl 32GB Space,
+grey,‚ neuw. (nicht begraucht), Preis:
+320,— € VHB &amp; (07431) 51772</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-in-Albstadt-Tailfingen-v3-w1024-h-m131164.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung,Albst.—Tailfingen
+Breslauer Str. 58 am 28.06.19 von
+14 — 17 Uhr + 29.6.19 v. 10 — 17 Uhr
+Bücher, Postkarten, Geschirr, usw.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/7595422-1pdf-v3-w1024-h-m131102.jpg</t>
+  </si>
+  <si>
+    <t>Gitarren Verstärker, Tech 21, 2 x
+60 Watt, 2 Eing. Mic. u. Gitarre,
+200,—. Tel. (07471) 4147</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/InTRo-GebrauchtwarenkaufhausAuf-ueber-600qm-finden-Sie-v3-w1024-h-m130680.jpg</t>
+  </si>
+  <si>
+    <t>InTRo Gebrauchtwarenkaufhaus
+Auf über 600qm finden Sie ge—
+brauchten Hausrat, Möbel, Antiqui—
+täten, Geschirr, Werkzeug, Beklei—
+dung und Vieles mehr zum
+Schnäppchenpreis ! Röntgenstraße
+30, Rottenburg, Mo, Di, Do, Fr 8—17
+Uhr, Mi 8—13 Uhr &amp; 07472/27632</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/nachhaltiger-konsumierende-in-TUe-und-Haigerloch-Stetten-v9-w1024-h-m130114.jpg</t>
+  </si>
+  <si>
+    <t>nachhaltiger—konsumieren.de in
+TU und Haigerloch—Stetten mit dem
+Bürostuhlservice von Ivo Lavetti Tel.
+0707 1/38397 oder 07474/918838.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/MARDER-Lebendfalleaus-Holz-zuverk-01739528174-v5-w1024-h-m129551.jpg</t>
+  </si>
+  <si>
+    <t>MARDER—Lebendfalle aus Holz zu
+verkaufen. &amp; 0173/9528174</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Ladeneinrichtung-v20-w1024-h-m125732.jpg</t>
+  </si>
+  <si>
+    <t>Komplette Ladeneinrichtung zu
+verkaufen, in sehr gutem Zustand,
+Fabrikat ”Umdasch”, Farbe grau,
+35 Ifm. Wandregal, 15 Ifm. doppel—
+seitige Verkaufsständer, Verkaufs—
+theken + Zubehör, Einrichtung
+muss selbstständig abgebaut und
+abgeholt werden, Preis _VHB,
+Z 0151/62427866</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Brennholz-Buche-v11-w1024-h-m117690.jpg</t>
+  </si>
+  <si>
+    <t>Brennholz Buche, für den nächsten
+Winter, ofenfertig, ab 75.—€ /m?.
+&amp; 0178 6924590</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Buche-Eiche-v13-w1024-h-m113134.jpg</t>
+  </si>
+  <si>
+    <t>Buche — Eiche — Kachelofenholz,
+gesägt und gespalten, 10 m?, frei
+Haus, 750,—€. # 0170 — 7 75 80 37</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Brennholz-Buche-Industrieholz-v12-w1024-h-m109450.jpg</t>
+  </si>
+  <si>
+    <t>Brennholz Buche (Industrieholz),
+10 m? 540.—€, 6m 350.—€, 4 m3
+240.—€. &amp; 0178 6924590</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Unterstellmoeglichkeitfuer-Wohnwagen-oder-Sonstiges-in-Bad-v3-w1024-h-m131244.jpg</t>
+  </si>
+  <si>
+    <t>Unterstellmöglichkeit für Wohnwa—
+gen oder Sonstiges in Bad Urach—
+Hengen. 7,70 m lang, 4,00 m breit,
+3,30 m hoch. Tel. 0151—68107856</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Hausflohmarkt-Moebel-Geschirr-Deko-Waesche-aus-aelterem-v3-w1024-h-m131255.jpg</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt: _Möbel, Geschirr,
+Deko &amp; Wäsche aus älterem Haushalt.
+Samstag, 29.06.19 von 11 — 15 Uhr
+Reutlinger Straße 24, 72147 Nehren</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/2-Bon-Jovi-Karten-am-5-Juli-2019-in-Muenchen-im-v3-w1024-h-m131266.jpg</t>
+  </si>
+  <si>
+    <t>2 Bon Jovi Karten am 5. Juli 2019,
+in München im Olympiastadion zu ver—
+kaufen. Telefon 0174 7636233</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Interesse-an-Philosophie-Buecher-besprechen-Themen-v3-w1024-h-m131241.jpg</t>
+  </si>
+  <si>
+    <t>Interesse an Philosophie? Bücher
+besprechen, Themen erörtern. Philoso—
+phiekreis sucht Teilnehmer. Treffen: ca.
+alle 4—6 Wochen in Rottenburg. EA Zu—
+schriften unter MM48876 an d. Verlag.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Umzugshelfer-gesucht-v3-w1024-h-m131182.jpg</t>
+  </si>
+  <si>
+    <t>Umzugshelfer gesucht Raum Alb—
+stadt Whap 0177/9166615 ab 19 Uhr</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Wer-verschenkt-Heizoeltanks-v3-w1024-h-m131172.jpg</t>
+  </si>
+  <si>
+    <t>Wer verschenkt Heizöltanks mit
+Heizöl? &amp; 07427 / 9427355</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Grosser-Garten-Springbrunnen-v3-w1024-h-m131165.jpg</t>
+  </si>
+  <si>
+    <t>©— R
+Großer Garten Springbrunnen 3m
+Durchm., 2,40m hoch, noch neu!
+inkl. Zubehör NP 3690€ VB nur
+2000€. Info's &amp; 01577 1761752</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Weltbekannte-HellseherinZigeunerin-hilft-Ihnen-in-jeder-v5-w1024-h-m130693.jpg</t>
+  </si>
+  <si>
+    <t>Weltbekannte Hellseherin/Zigeu—
+nerin — hilft Ihnen in jeder Lebensla—
+ge, mache auch Partnerzusammen—
+führung. &amp; (0 74 72) 9896989</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Biokomposttueten-aus-Altpapier-v4-w1024-h-m130681.jpg</t>
+  </si>
+  <si>
+    <t>Biokomposttüten aus Altpapier —
+8 Stück für 1,50 € — Eigenproduktion
+INTRO — Integrations— und Tages—
+strukturierungsbetriebe Rottenburg
+Tel. 0 74 72/2 76 32</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Buchhaltung-selber-machen-v13-w1024-h-m128846.jpg</t>
+  </si>
+  <si>
+    <t>Buchhaltung selber machen
+mit LEXWARE Software
+INFO unter Tel.: 07473 270027</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesungen-Entruempelungen-Raeumungen-v66-w1024-h-m89244.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösungen Entrümpe—
+lungen, HRäumungen, _zuverlässig,
+schnell, günstig — mit Festpreisgaran—
+tie auch größere Objekte INTRO Integ—
+rations— und Tagesstrukturierungsbe—
+triebe Rottenburg @ (0 74 72) 2 76 32</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Baudienstleistungen-Haushaltsaufloesung-Umzugshilfe-Z-v68-w1024-h-m89247.jpg</t>
+  </si>
+  <si>
+    <t>Baudienstleistungen, Haushalts—
+auflösung, Umzugshilfe.
+&amp; 07123/963960
+Fax 07123/9407507 1
+email: maimarkt@aol.com
+Metzinger—Arbeits—Initiative e.V.</t>
   </si>
   <si>
     <t>ZVW- Mein Wochenblatt</t>
@@ -315,28 +593,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -352,18 +629,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Standard" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -653,421 +939,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A141" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,34 +1,567 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7110"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebData" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WebData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+  <si>
+    <t>Anzeigensuche - Pforzheimer Zeitung</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598153_1_orgorg_5d2e59d5d6116.jpg</t>
+  </si>
+  <si>
+    <t>BMW 116i M Sport
+EZ 06/16, TÜV neu, 38000 km,
+4x WR, viele Extras, VB € 17 990,—.
+Telefon 07082/491491</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596663_2_orgorg_5d2e5998266f3.jpg</t>
+  </si>
+  <si>
+    <t>Restaur, Sitzgarnitur
+2—Sitzer u. 2 Sessel, Samt olivgrün,
+Vintagestil an Selbstabholer € 300,—
+Tel. (0 72 31) 75003</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596656_2_orgorg_5d2e599a9db34.jpg</t>
+  </si>
+  <si>
+    <t>nn ENN
+Englisches— —Biedermeier
+Edwardian (1901—1914), 3 Stühle,
+stabil u. standfest, Mahagoni, Teak,
+Birke, Gebrauchsspuren, Polsterung
+o.K., Sitzkissenbezüge zu erneuern.
+Stückpreis VB € 90,— Tel. (0 70 43)
+950562</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598110_1_orgorg_5d2e599c6f251.jpg</t>
+  </si>
+  <si>
+    <t>Flohmarkt
+anlässlich einer kompletten Hausräu—
+mung in Kämpfelbach—Ersingen, Tho—
+masbrunnenstr. 5. Angeboten wer—
+den u. a. Bestecke, Tupperschüsseln,
+hochwertiges Goldrandservice, MÖ—
+bei, Kunststoffweinfässer 30 | — 600 |,
+Maischezuber 750 | u. 1250 |, Frei—
+tag, 19. 7., von 15 — 20 Uhr, Samstag,
+20. 7., 10 — 18 Uhr, Sonntag, 21. 7.,
+10 —14 Uhr. Rückfragen unter
+Telefon 0174/3 70 24 17</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596695_2_orgorg_5d2e599f430b6.jpg</t>
+  </si>
+  <si>
+    <t>Schlauchboot 3 x 1,35 m
+Superkaraweil XRGT 106, VB € 80,—
+3 Rettungswesten, Sporttasche und
+anderes, Wanderstiefel Meind| Gr. 43,
+Wanderstiefel Mephisto Gr. 43, Preis
+VS. Telefon 0151/ 2622 54 14</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596676_2_orgorg_5d2e59a7da1f7.jpg</t>
+  </si>
+  <si>
+    <t>Heimbügler
+65 cm Walzenbreite, Preis: VHS
+Tel. (07232) 79135</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596670_2_orgorg_5d2e59a9a7e7e.jpg</t>
+  </si>
+  <si>
+    <t>Schlagbohrschrauber
+„Black + Decker'”, 500 W, neuwertig,
+zzgl. div. Bohrer, € 45,—, zur Selbstab—
+holung. Tel. 07231/4407882</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596678_2_orgorg_5d2e59aa5106c.jpg</t>
+  </si>
+  <si>
+    <t>Orientteppiche und
+neuwertige Pelze aus Erbschaft abzu—
+geben. Telefon 07231/312385</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598112_1_orgorg_5d2e59ace9590.jpg</t>
+  </si>
+  <si>
+    <t>Wohnungsauflösung
+$So. 21.07. 19 von 9 — 15 Uhr,
+Ersingerstr. 14, Ispringen</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596704_2_orgorg_5d2e59ad9cff9.jpg</t>
+  </si>
+  <si>
+    <t>Sitzgarnitur + Tisch (Teak)
+Preis VB, Tel. 0176 — 21475585</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596700_2_orgorg_5d2e59b031d76.jpg</t>
+  </si>
+  <si>
+    <t>h
+din
+Citicen Langdreher L 16
+und Bandsäge, Preis VB
+Telefon 07082—17 10</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598120_1_orgorg_5d2e59b589ecf.jpg</t>
+  </si>
+  <si>
+    <t>Sidebord m. Spiegel
+L ca. 2 m, , VB € 270,—
+Tel. 0176/41174664</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596703_2_orgorg_5d2e59b831cb9.jpg</t>
+  </si>
+  <si>
+    <t>Hängebohrmaschinen, _ Werkstatt—
+hocker (Holz) und Tische, Preis VB
+Telefon 07082 — 1710</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596701_2_orgorg_5d2e59bc8a2f0.jpg</t>
+  </si>
+  <si>
+    <t>Woh
+3,50 m x 2,20 m, gut erhalten,
+| Preis VB Tel. 0176 — 21475585</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598131_1_orgorg_5d2e59c4f2f69.jpg</t>
+  </si>
+  <si>
+    <t>Vitrine
+L 1,20 m, H 2,20 , VB € 180,—
+Tel. 0176/41174664</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598135_1_orgorg_5d2e59c7f1796.jpg</t>
+  </si>
+  <si>
+    <t>Maschinentelegraph
+mit Beleuchtung, Höhe 1,05 m, Dm
+Skala ca. 25 cm, echt alt und aus
+Messing! Sehr dekorativ, Preis
+VB € 350,—. Tel. 0171/6844243</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598137_1_orgorg_5d2e59c96bbd7.jpg</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt
+in Niefern, Hippberg 5, am 20.07.19
+ab 9 Uhr. Kommen sie vorbei alles
+muss raus.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598147_1_orgorg_5d2e59d1183af.jpg</t>
+  </si>
+  <si>
+    <t>Aus Nachlass der Uroma
+2 Nachtschränke mit pass. Kommo—
+de, 2 Kommoden, 3 alte Bauern—
+schränke, 1 alte Nähmaschine mit
+Fußpedal. Tel. 0160/99405355</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596659_2_orgorg_5d2e599553ca1.jpg</t>
+  </si>
+  <si>
+    <t>39
+Biedermeier—Sofa, gt. erh.
+an Selbstabholer für € 150,—
+Tel. (0 72 31) 75003</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5185/2592611_4_orgorg_5d2e598db49f5.jpg</t>
+  </si>
+  <si>
+    <t>MARDER—Holzfalle
+Lebendfalle auch f. Ratten zu verk.
+Telefon 01 73 / 95 28 17 4</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596674_2_orgorg_5d2e59a70beb0.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung
+gut erhaltenes Allerlei zum Verkauf
+Bilder, Bücher, Geschirr, Kleider,
+Möbel u.v.m.
+am 20.7.19 von 8—12 Uhr.
+Wir freuen uns auf Ihren Besuch in der
+Wilhelmshöhe 7
+7 5433 Maulbronn</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598130_1_orgorg_5d2e59c4247f5.jpg</t>
+  </si>
+  <si>
+    <t>Sauter Klavier
+sehr guter Zustand, VB € 1500,—, oh—
+ne Transport. T. 0175/1624146</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595719_2_orgorg_5d2913c9467c0.jpg</t>
+  </si>
+  <si>
+    <t>Alles muss raus!
+Komplette Hausräumung. Möbel,
+Hausrat, usw., 19.07.19 u. 20.07.19
+jeweils von 8—19 Uhr.
+7 5203 Königsbach, Schillerstr. 14.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595703_2_orgorg_5d2913c098436.jpg</t>
+  </si>
+  <si>
+    <t>Moderner Zweisitzer
+neuwertig, ca. 1,80 m lang, Micro—
+faser, grau, VB € 150,—.
+Telefon 07082/491491</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595677_2_orgorg_5d2913b64c0f8.jpg</t>
+  </si>
+  <si>
+    <t>Modellflugzeuge
+für Hobbybauer, versch. Modelle auch
+mit Ferngeräte. T. 07231/453009</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595681_2_orgorg_5d2913ae38e86.jpg</t>
+  </si>
+  <si>
+    <t>3 Sonnen—Liegen
+wetterbest. umständeh., 2 Schlafsä—
+cke, OVP, abzugeben. Preis: VHS
+Tel. (07231) 83 31 ab 18 Uhr</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5175/2587583_6_orgorg_5d29138c5c535.jpg</t>
+  </si>
+  <si>
+    <t>W / tn et, nn ”
+„Schimmel”—Klavier
+Pyramiden—Mahagoni, ca 35 J., sehr
+gt. Zustand, mit Lampe u. Klavier—
+stuhl, Preis VS, an Selbstabholer.
+Tel. 07231/48 23 23</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596660_1_orgorg_5d2913d631199.jpg</t>
+  </si>
+  <si>
+    <t>Wegen Umzug günstig
+zu verkaufen oder zu verschenken,
+Schrankwand, Antique Stehlampe u.
+Nähmaschine und diverse Flohmarkt—
+artikel, anzusehen am 13. 7. 19,
+75399 Unterreichenbach—Dennjächt,
+Bergstr. 57.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598154_1_orgorg_5d2e59d6e2d60.jpg</t>
+  </si>
+  <si>
+    <t>Putzhilfe gesucht!!!
+Suchen zuverlässige Putzhilfe für
+unsere Büroräume. 1 x wöchentlich,
+ca. 3 Stunden auf Minijob—Basis.
+Telefon 0 72 31 / 13 93 80</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5097/2548507_39_orgorg_5d2e59894ba9d.jpg</t>
+  </si>
+  <si>
+    <t>Sperrmüllabfuhr
+Entrümpelungen auch Kleinmengen.
+Tel. 0173/ 9852717</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598106_1_orgorg_5d2e5987d4d7b.jpg</t>
+  </si>
+  <si>
+    <t>Wie Engel uns begleiten
+erzählt der Prophet Jakob Lorber!
+Kostenloses Buch unverbindlich an—
+fordern bei Helmut Betsch, Bleiche
+22/41, 74343 Sachsenheim</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5057/2528534_55_orgorg_5d2e573e83a72.jpg</t>
+  </si>
+  <si>
+    <t>SORGLOS
+ENTSvwRGT
+Günstige Preise durch Wertanrechnung
+:—Haushaltsauflösungen
+»Entrümpelungen
+:—Messiwohnungen
+Rufen Sie uns kostenfrei an!
+0800 — 407 408 409</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5055/2527737_54_orgorg_5d2e57390206d.jpg</t>
+  </si>
+  <si>
+    <t>Sperrmüllabfuhr
+Entrümpelungen
+preiswert und schnell
+auch kleine Mengen
+07041—41153 oder 0 7231—7 768626
+0151—14369217</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/4566/2283275_223_orgorg_5d2e573625a01.jpg</t>
+  </si>
+  <si>
+    <t>WIR KAUFEN IHR GOLD: Barrengold
+Altgold | Zahngotd | Münzen
+Pfandhaus I_I KSf é
+Pforzheim
+BARGELD. Schnell. Einfach. Diskret.
+Lindenstraße 25
+75175 Pforzheim
+Tel.: 07231 800 2000
+Fax: 07231 800 2002 0
+www.pfandhauspforzheim.com
+info@pfandhauspforzheim.com
+Öffnungszeiten: so
+Montag—Freitag 9.00—18.00 Uhr ”
+Samstag 10.00—14.00 Uhr
+WIR BELEIHEN: Schmuck | Gold | Uhren
+Autos | Motorräder | Oldtimer</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/4527/2263601_277_orgorg_5d2e57354413d.jpg</t>
+  </si>
+  <si>
+    <t>Baum und Garten M
++ Heckenschnitt + Wurzelstockentfernung
++ Baumfällarbeiten _ « Grundstückspflege !
+Tel. (07231) 68281 od. 0170/3111895
+pkbaumfaell@web.de gewerbl.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5055/2527733_57_orgorg_5d2e57323b0ed.jpg</t>
+  </si>
+  <si>
+    <t>Floh—Laden. com®
+Inh. Jens Huthmacher
+Demontage — Rückbau — Entrümpelung
+Gebrauchtmöbel — Haushaltsauflösung
+Maximilianstraße 98 + 75172 Pforzheim
+WhatsApp: 0171 7 38 82 46
+Telefon: 07231 / 607 80 14
+E—Mail: _ kontakt2016@floh—laden.com</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5185/2592602_4_orgorg_5d2e57315d07d.jpg</t>
+  </si>
+  <si>
+    <t>Arbeit gesucht ! Pflaster—, Maurer—,
+Maler—, Tapezier—, Fliesenlege— und Lami—
+natarbeiten sowie Gartenarbeiten aller
+Art, schnellu. günstig. 01 77 / 9801893</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596649_2_orgorg_5d2e598b71765.jpg</t>
+  </si>
+  <si>
+    <t>Mobile Fußpflege
+Termine nach tel. Vereinbarung.
+Telefon 0176/31333856</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5101/2550786_38_orgorg_5d2e59901c597.jpg</t>
+  </si>
+  <si>
+    <t>_ Feinteco
+Dienstleistungen
+Haussanierung
+(innen und außen komplett),
+Wände umbauen, Drainage,
+Abbrucharbeiten, Außenanlage
+Telefon 07231/45507 11</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598149_1_orgorg_5d2e59d29d1af.jpg</t>
+  </si>
+  <si>
+    <t>lrak. Reisepass
+Nr. A.11763236 in PF od. Kiesel—
+bronn verloren. Tel. 0176—21290433</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598144_1_orgorg_5d2e59cec7625.jpg</t>
+  </si>
+  <si>
+    <t>Dacharbeiten —
+Dachreparaturen aller Art, Ziegel—
+austausch, Trockenfirst, Dämmung,
+Garagen und Flachdachabd.
+Telefon 0176—44404168</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598141_1_orgorg_5d2e59cc7325b.jpg</t>
+  </si>
+  <si>
+    <t>Reinigungskraft
+Suche deutsch—russische Reinigungs—
+kraft für zwei Stunden pro Woche im
+Rodgebiet. Privathaushalt.
+Auf Mini—Job—Basis.
+Bitte melden Sie sich unter
+rolf_meer61l@web.de</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598123_1_orgorg_5d2e59bd8b01a.jpg</t>
+  </si>
+  <si>
+    <t>UB B 1 B 3 R 37 B 1 KF E°
+bE ine = —
+ARK
+&amp;
+2 A a u a
+3. Straubenhardter
+Trödellust mit Hocketse
+27.07.2019 von 9—18 Uhr
+Landhausstraße 1—12 und rund um
+die Martinskirche Preis pro Ifm
+Stand 5€
+Kinder mit Spielsachen gratis
+Information und Anmeldung
+hanspeter _ weidner@yahoo.de
+Telefon 0 70 82 / 49 07 32</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598113_1_orgorg_5d2e59aeabb88.jpg</t>
+  </si>
+  <si>
+    <t>SUCHE FAHRRAÄDER
+Suche geb. Fahrräder, Mofa und Rol—
+lers kostenlos oder bis 10 Euro.
+Telefon 01 76 / 60 96 95 38</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596687_2_orgorg_5d2e59a552544.jpg</t>
+  </si>
+  <si>
+    <t>Erledige
+elektriker Arbeiten, jeglicher Art
+Tel. 0176/63178048</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596665_2_orgorg_5d2e599e48a93.jpg</t>
+  </si>
+  <si>
+    <t>Fliesenleger sucht Arbeit
+auch als Gipser, Maler, Trockenbauer
+oder Gartenarbeiten.
+Telefon 0151— 17573464</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595715_3_orgorg_5d2e5999d3de4.jpg</t>
+  </si>
+  <si>
+    <t>Gartenarbeiten aller Art
+Hecken schneiden, Pflaster, Terrassen,
+professionell, preiswert, Abfuhr frei.
+T. PF 7237082 od. 01 76 / 24 12 21 29</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5089/2544723_42_orgorg_5d2e572e89030.jpg</t>
+  </si>
+  <si>
+    <t>Entrümpelung
+Wohnungsauflösung, Entrümpelun—
+gen aller Art, für gewerblich u. privat
+Telefon 0 72 31 / 41 77 72</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/4559/2279948_257_orgorg_5d2e573ac6cdc.jpg</t>
+  </si>
+  <si>
+    <t>übernimmt
+Umbauarbeiten aller Art
+gCn C</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598114_1_orgorg_5d2e59af63411.jpg</t>
+  </si>
+  <si>
+    <t>Starke Männer für Umzug
+gesucht. Mutter mit Sohn sucht für
+bevorst. Umzug im August fleißige
+Umzugshelfer bei guter Bezahlung.
+Tel. (07231) 280024 oder 0159 —
+01628377</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/1683/841501_235_orgorg_5d2bb4319de27.jpg</t>
+  </si>
+  <si>
+    <t>Fl!lll!flll$l:lil!f |lfllll!ll IZSSGII.'
+Nst teti 93
+Inh. Jörg Daniel
+VERKAUF — WARTUNG
+PFORZHEIM — Bleichstr. 82
+Telefon (0 72 31) 230 12 + Fax 26277</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5187/2593708_2_orgorg_5d29138772024.jpg</t>
+  </si>
+  <si>
+    <t>Wir übernehmen Gartenpflege
+Heckenschnitt, Baumfällen, Rasen—
+mähen. Telefon 0157—72895401</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,21 +577,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -348,39 +875,746 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,56 +1,684 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="6855"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebData" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WebData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+  <si>
+    <t>Ich, m, 34 Jahre, aus Rumänien, suche liebe Dame für schöne Stunden, Alter egal. Zuschriften unter Chiffre CZZU9383 a. d. Ztg.</t>
+  </si>
+  <si>
+    <t>Kaufe Fotoapparate, Armbanduhren, Werkzeuge, Eisenbahnen (Märklin), Blechspielzeuge, alte Kofferradios und Modellautos, sowie Werkstatt-Auflösungen.
+% (0 70 24) 86 82 75</t>
+  </si>
+  <si>
+    <t>Gepflegter Herr, 54 Jahre, 1,83m groß verwöhnt die entgegenkommende Frau ab 70. Zuschriften unter Chiffre EZZU9333 a. d. Ztg.</t>
+  </si>
+  <si>
+    <t>Suche gut erhaltenen Kleiderschrank für Schlafzimmer, hell, bis 2,90m breit % 07153-6149630 abends oder AB</t>
+  </si>
+  <si>
+    <t>Nicht mehr lange und es kommt die Zeit der Zweisamkeit. Ich 62J,1,71m, 73 kg suche Dich 60+-2 Jahre, die mit mir einen neuen Lebensabschnitt für immer beginnen möchte. Zuschriften mit Bild unter Chiffre EZZU9381 a. d. Ztg.</t>
+  </si>
+  <si>
+    <t>Mädchenfahrrad, 24“, rot-weiß, 60 Euro, Tel. 0711-3701954</t>
+  </si>
+  <si>
+    <t>73jähriger Wittwer, 175 cm, 76 kg, sportlich, habe den Wunsch auf diese Weise eine nette Partnerin kennenzulernen, die schlank, gepflegt ist, Niveau hat und mit mir das Leben in allen Facetten genießen will, das Alter der Dame sollte zwischen 70 und 75 sein. Ich freue mich von Ihnen eine Antwort zu erhalten. Zuschriften unter Chiffre EZZU9380 a. d. Ztg.</t>
+  </si>
+  <si>
+    <t>Bügelmaschine, TT-Platte, Panzerglasscheibe 145x120x2,5cm,
+Preis VS % 0711-361540</t>
+  </si>
+  <si>
+    <t>Kaufe Eisenbahnen - Modell-
+autos - Puppenspielzeug und sonst. aus Wohnungsauflösungen.
+Mobil: 0176 41613964</t>
+  </si>
+  <si>
+    <t>Personalausweis, AOK-Karte, Behindertenausweis u. weitere Dokumente wahrscheinl. im Bus Nr. 108 verloren % 0151 - 24570525</t>
+  </si>
+  <si>
+    <t>Hutschenreuther, Zwiebelmuster, Speiseservice, je 6 Teile blau-weiß VB. % 0711-323935</t>
+  </si>
+  <si>
+    <t>Vorwerk Kobold Bürstsauger: Typ 120, 100 €; Typ 140/360,
+300 €. % (0 71 53) 7 18 46</t>
+  </si>
+  <si>
+    <t>Original Flex von Ackermann &amp; Schmitt, voll funktionsfähig mit einigen Flexscheiben sowie Diamantscheiben, günstig abzugeben % 0711-3701583</t>
+  </si>
+  <si>
+    <t>Suche altes Werkzeug, aus Garagen und Werkstatt Auflösung Hazet,Gedore sowie Oldtimerteile
+0176/97304981</t>
+  </si>
+  <si>
+    <t>Waschbetonplatten 40x60, 26 Stück, Naturarzt Hefte beides g. Abhlg.; % 07153-41137</t>
+  </si>
+  <si>
+    <t>Gr. Sonnenschirmständer, 60 cm Durchm., Rohr 6 cm Durchm., sgt. erh., günstig.; % 0711-3701583</t>
+  </si>
+  <si>
+    <t>Kegelgruppe, 70+, sucht Frauen, Männer, Paare, gern jünger, in ES (nur 1 Bahn). % (0711) 325672</t>
+  </si>
+  <si>
+    <t>Flohmarktware, günstig. Spielsachen, Kleidung, Schmiedekunst, Krimis u. v. mehr. % (0711) 325672</t>
+  </si>
+  <si>
+    <t>Ankauf zum Sammlerwert!
+Antiquitäten, Möbel, Gemälde, Porzellan, Zinn, DM-Münzen, Silberbesteck, Armbanduhren in jeder Preisklasse. Simon Guttenberger % 0175-5370019</t>
+  </si>
+  <si>
+    <t>Gebr. Damenbekleidung , in Gr.36-44 gut erhalten hole ich gerne bei Ihnen ab. Sie sparen den Weg zum Altkleidercontainer. mobil: 01704600579</t>
+  </si>
+  <si>
+    <t>Welche Frau will interessanten Seitensprung (evtl. öfter mal) mit großem, attraktiven Herrn mittleren Alters erleben? Romantisches, diskretes, sauberes Liebesnest ist rund um die Uhr verfügbar! Tel./Whatsapp (01 78) 1 71 95 28</t>
+  </si>
+  <si>
+    <t>Mein Klavier sucht f. ca. 2 J. eine Stellmöglichkeit in häusl. Umgebung (wegen berufl. Abwesenheit). Es darf gerne bespielt werden. Einzige Bedingung: Übernahme Transportkosten. Bitte melden bei Simon % 0162-7325703</t>
+  </si>
+  <si>
+    <t>Suche für Geburtstagsgeschenk Militaria aus 1. + 2. Weltkrieg.
+% 0163-8385220</t>
+  </si>
+  <si>
+    <t>Dachdecker sucht Nebenbeschäftigung: Dachreparaturen aller Art, Dachfürst u. -ziegel, Garagen- u. Flachdachabd. (0176) 44 40 41 68</t>
+  </si>
+  <si>
+    <t>Welcher Hundefreund/welche Hundefreundin kann sich vorstellen mit einem 7 Jahre alten Labrador 2-3 mal die Woche spazieren zu gehen. Er ist absolut friedlich, temperamentvoll und nicht der beste Leinengänger - er interessiert sich nicht für Jogger und Radfahrer. Wenn Sie Interesse und etwas Taschengeld haben wollen bitte melden unter 07153-9285674.</t>
+  </si>
+  <si>
+    <t>Alte Knöpfe für Deko gesucht.
+% 0178-8177836</t>
+  </si>
   <si>
     <t>Stellplatzflohmarkt, Statt Garagen- Stellplatzflohmarkt; nur bei trockenem Wetter! Wir bieten Ueberzähliges aus Familienhaushalt z.B.: Buecher, Kleidung, Deko, Kindersachen,... 14:30 - 17:30 Uhr im Hopfengartenweg 32, ES-Serach</t>
   </si>
   <si>
-    <t>Haushaltsauflösung von Do. 28.7.
-bis Fr. 26.7. jew. von 10:20 Uhr
-den 28.7. von 12—18 Uhr
-Pfah\buh\stl 7/1 in Weinstadt</t>
+    <t>Sammler kauft, alles Militärische aus dem 1. und 2. Weltkrieg z.B. Orden und Abzeichen, Urkunden, Dolche und Säbel, Uniformen, Ausrüstungsgegenstände, Helme, etc. 07022-977695</t>
+  </si>
+  <si>
+    <t>Gartenarbeit aller Art gesucht, z. B. Hecken schneiden, Rasen, Platten, Zäune etc. % 0174-3216768.</t>
+  </si>
+  <si>
+    <t>PINK Olympiastadion München 27.07.2019, 2 Tickets Ehrenloge nebeneinander, krankheitshalber. Sonderpreis unter 0162-2323605</t>
+  </si>
+  <si>
+    <t>Biete Opel Astra G, Bj.98 in ES zum Kauf an. Sehr guter Zustand, Km 184000, TÜV bis 09/20. VB 950€. Tel. 015221663837</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung oder Ausmisten? Wer verschenkt gut erhaltene Flohmarktartikel? Bitte nichts wegwerfen! Wir freuen uns über: Altes Kaffeegeschirr, Gläser, Vasen, Lampen, Bilder, Holzstühle, Trödel, Instrumente, Nähmaschinen, Extravagantes und Kurioses und alles aus Oma’s Haushalt für unseren großen Familien-Flohmarkt
+Abholung ! Tel.(0177) 2 85 16 86</t>
+  </si>
+  <si>
+    <t>Er sucht Dame in Nylon-Strumpfhosen für eine Affaire. E-Mail:
+uwe-h@gmx.de</t>
+  </si>
+  <si>
+    <t>Möchte einen Vogelzüchter-Club gründen, suche Gleichgesinnte.
+% (0 71 53) 9 99 84 85</t>
+  </si>
+  <si>
+    <t>Partyzelt 4x4 m, hellbeige, neuwertig zu verschenken
+% 07024-81889</t>
+  </si>
+  <si>
+    <t>Suche Putzhilfe, Wir suchen eine zuverlässige, gründliche Putzhilfe für unseren Privathaushalt (Einfamilienhaus) in Kirchheim/Teck.
+1x pro Woche Reinigung unserer Hauptwohnung, ca. 4 Stunden (am liebsten Donnerstag nachmittags oder Freitags). Plus Reinigung der im Haus befindlichen Ferienwohnung nach Bedarf. Lohn: 12,-€.
+Bitte melden: Anruf (ab 18 Uhr)/Whatsapp 0170-5831954 oder E-Mail kundt@kundt.org</t>
+  </si>
+  <si>
+    <t>Mobile Katzenbetreuung,
+und andere Kleintiere in Kirchheim unter Teck und Umgebung!
+Ich betreue während Ihrer Abwesenheit zuverlässig, professionell und liebevoll Ihren Stubentiger und/oder andere Kleintiere in ihrer gewohnten Umgebung, damit Sie bedenkenlos auf Reisen etc. gehen können.
+Kein Stress für Mensch und Tier!
+Besuchen Sie meine Webseite oder rufen Sie mich an.
+0172/7496265
+www.justforpads.de</t>
+  </si>
+  <si>
+    <t>Kaufe Flohmarktartikel, bevorzugt Werkzeuge, Fotoapparate und Objektive, Ferngläser, Spielzeugfiguren (Indianer, Cowboys, Soldaten), Schlümpfe, Modellautos von Siku, Matchbox, Minichamps, Schuco, Märklin, Cursor oder anderen, Eisenbahn (Märklin), Lehmann Gartenbahn und weitere Sammelartikel. Telefon 07021/8076238</t>
+  </si>
+  <si>
+    <t>Kaufe alles vom 1. und 2. Weltkrieg Orden, auch uraltes Spielzeug, Märklin-Eisenbahnen, Bücher, sowie alles über alte Autos, Motorräder, Zeppeline usw., Tel. 0711-6405077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	Suche von Anzeigen der Rubrik dies und das
+</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Doppel-Klapptisch-Kiefer-massiv-guter-Zustand-L-1408020-B-v3-w1024-h-m134268.jpg</t>
+  </si>
+  <si>
+    <t>Doppel—Klapptisch Kiefer massiv, guter Zustand, L 140/80/20, B 105, H 72 cm. 90 €. &amp; 0172—7314096</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Delfter-Vasen-versch-Groessen-kompl-130-Z01523-2097687--v3-w1024-h-m134250.jpg</t>
+  </si>
+  <si>
+    <t>Delfter Vasen, versch. Größen, kompl. 130.— &amp; 01523—2097687</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/3-Sitzer-Couch-Sessel-Hocker-in-rot-alles-neuwertig-FP-200-v3-w1024-h-m134265.jpg</t>
+  </si>
+  <si>
+    <t>3—Sitzer—Couch, Sessel, Hocker in rot, alles neuwertig FP 200.— €. &amp; 07473—3792185</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/AS-Elektromobil-C200-neuwertig-Preis-auf-Anfrage-Z-07072-v3-w1024-h-m134267.jpg</t>
+  </si>
+  <si>
+    <t>AS—Elektromobil C200 neuwertig. Preis auf Anfrage. # 07072—9278889</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Herlag-Kindergitter-BettHolz-50-e-Heimtrainer-Kettler-v3-w1024-h-m134350.jpg</t>
+  </si>
+  <si>
+    <t>Herlag Kinder(gitter)—Bett, Holz, 50 €, Heimtrainer Kettler „Stratos” 50 €, Kinderfahrrad Pegasus, 18” Zoll, 50 € . Tel. 07031 233302</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Grosser-Esstisch-fuer-10-12-Personen-L-320-cm-B-110-cm-H-v3-w1024-h-m134252.jpg</t>
+  </si>
+  <si>
+    <t>Großer Esstisch für 10—12 Personen, L 320 cm, B 110 cm, H 73,5 cm, Uni— kat in Rotbuche massiv. Sehr guter Zustand, wegen Umzug abzugeben,  Standort TÜ, Zufuhr möglich. 1100 €. &amp; 0171 7071181</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Fahrradtraeger-fuer-Anhaengerkupplung--v3-w1024-h-m134263.jpg</t>
+  </si>
+  <si>
+    <t>Fahrradträger für Anhängerkupp— lung für 2 Räder, neuwertig, FP 120 € Telefon 07031 6332491 (AB)</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Buegelmaschine-Fabr-Miele-vollfunktionsfaehig--v3-w1024-h-m134256.jpg</t>
+  </si>
+  <si>
+    <t>Bügelmaschine Fabr. Miele voll— funktionsfähig 150.— &amp; (07472) 22320</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Div-Moebel-antik-Klavier-Sofa-Futonbett-etc-Z-07071-6-27-37-v4-w1024-h-m134266.jpg</t>
+  </si>
+  <si>
+    <t>Div. Möbel (antik), Klavier, Sofa, Fu— tonbett etc. 2 (07071) 6 27 37</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Neues-unben-Kleintiergehege-abzugeben-v3-w1024-h-m134236.jpg</t>
+  </si>
+  <si>
+    <t>Neues, unbenu. Kleintiergehege ca. 1,60x1,60x63cm, günst. abzugeben, NP 170 € für 100€ &amp; 0152/25162425</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Auwaerter-PKW-Anhaenger--v3-w1024-h-m134227.jpg</t>
+  </si>
+  <si>
+    <t>Auwärter PKW Anhänger, 0,6 t 250,— € y. Stielmotorsäge, wenig ge— braucht 200,—€ &amp; (07433) 21263</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/7608422-1pdf-v3-w1024-h-m134184.jpg</t>
+  </si>
+  <si>
+    <t>Komplette Anglerausrüstung zu verkaufen. Tel. (07477) 324883</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Buerostuhlservice-Ivo-LavettiTUe-Haigerloch-Stetten-v6-w1024-h-m133518.jpg</t>
+  </si>
+  <si>
+    <t>'prostuhlu_‘  A Ee m  Bürostuhlservice Ivo Lavetti TÜ + Haigerloch—Stetten. Gebrauchte Stühle, Reparatur u. Ersatzteile. www.prostuhl.com T. 07071 38397</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/MARDER-Lebendfalleaus-Holz-zuverk-01739528174-v10-w1024-h-m132006.jpg</t>
+  </si>
+  <si>
+    <t>MARDER—Lebendfalle aus Holz zu verkaufen. &amp; 0173/9528174</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Buche-Eiche-Kachelofenholz-v10-w1024-h-m131983.jpg</t>
+  </si>
+  <si>
+    <t>Buche — Eiche — Kachelofenholz, gesägt und gespalten, 10 m?, frei Haus, 750,—€. # 0170 — 7 75 80 37</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/BucheEiche-Kachelofenholz-v11-w1024-h-m131920.jpg</t>
+  </si>
+  <si>
+    <t>Buche—Eiche Kachelofenholz ge—  sägt u. gespalten, 10 m?, frei Haus, 750,—€ &amp; (0170) 7 758037</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Brennholz-Buche-v20-w1024-h-m117690.jpg</t>
+  </si>
+  <si>
+    <t>Brennholz Buche, für den nächsten Winter, ofenfertig, ab 75.—€ /m?. &amp; 0178 6924590</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Brennholz-Buche-Industrieholz-v21-w1024-h-m109450.jpg</t>
+  </si>
+  <si>
+    <t>Brennholz Buche (Industrieholz), 10 m? 540.—€, 6m 350.—€, 4 m3 240.—€. &amp; 0178 6924590</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Suche-Mitspielerin-f-Rommee-v3-w1024-h-m134261.jpg</t>
+  </si>
+  <si>
+    <t>Suche Mitspielerin für Rommee u. andere Kartenspiele, &amp; (07472) 89 44</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Sponsorin-gesucht-Er-60-J-agil-sucht-Sponsorin-fuer-v3-w1024-h-m134358.jpg</t>
+  </si>
+  <si>
+    <t>Sponsorin gesucht!  Er, 60 J, agil, sucht Sponsorin für Me— dizinische Leistung. Gerne mit Gegen— leistung. Allrounder. Organisator Email: hilfe1.0@gmx.de</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Offener-Sonntag287-13-18Uhr-Korbhaus--v3-w1024-h-m134259.jpg</t>
+  </si>
+  <si>
+    <t>Offener Sonntag 28.7.13— 18Uhr Korbhaus TÜ—Kilchberg Bahnhofstr.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Uebernehme-Entruempelungen-v3-w1024-h-m134228.jpg</t>
+  </si>
+  <si>
+    <t>Übernehme Entrümpelungen und Haushaltsauflösungen, Gartenarbei— ten, sowie sämtliche Dienstleistun—  gen. Preisgünstig und zuverlässig. &amp; 0174/7 333216</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesungen-Entruempelungen-Raeumungen-v79-w1024-h-m89244.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösungen Entrümpe— lungen, HRäumungen, _zuverlässig, schnell, günstig — mit Festpreisgaran— tie auch größere Objekte INTRO Integ— rations— und Tagesstrukturierungsbe— triebe Rottenburg @ (0 74 72) 2 76 32</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Baudienstleistungen-Haushaltsaufloesung-Umzugshilfe-Z-v81-w1024-h-m89247.jpg</t>
+  </si>
+  <si>
+    <t>Baudienstleistungen, Haushalts— auflösung, Umzugshilfe.  &amp; 07123/963960  Fax 07123/9407507 1  email: maimarkt@aol.com Metzinger—Arbeits—Initiative e.V.</t>
+  </si>
+  <si>
+    <t>ZVW- Mein Wochenblatt</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50477934.jpg</t>
+  </si>
+  <si>
+    <t>Bronnhofz irisch, Buche 69.— € /m, Eiche, Birke 55,— €fm + chenloß, trock. 1 m/g. 70. ©m. Ofen .. 85,— €/rm. zs 07182 / 32 79</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50476661.jpg</t>
+  </si>
+  <si>
+    <t>Ledereckcouch mit Bettkasten. schwarz, —_ Wohnzimmer—Häng schrank, Lowboard und kl. Kommo— de, Front aus schwarzem Glas Preis VB 300 €. Tel.: 0178/6749698</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50473663.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung von Do. 28.7.  bis Fr. 26.7. jew. von 10:20 Uhr den 28.7. von 12—18 Uhr  Pfah\buh\stl 7/1 in Weinstadt</t>
   </si>
   <si>
     <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50473661.jpg</t>
   </si>
   <si>
-    <t>Haustiohmarkt am 17.8. m Bäder
-ör 6, Wa\bhngen von 10 bis ca.
-@ Uhr. Tel. (0 71 51) 1 56 74</t>
+    <t>Haustiohmarkt am 17.8. m Bäder ör 6, Wa\bhngen von 10 bis ca. @ Uhr. Tel. (0 71 51) 1 56 74</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50473909.jpg</t>
+  </si>
+  <si>
+    <t>E—Bike _ (Pedelec) — Pegasus Bosch—Antrieb, 400Wh—Li—lonen— Akku, — 8—Gang—Shimano—| NabeW  schaltung, 1983 km, einwandfre er Zustand, NP 2250€, VB 600€ Tel: Ot71 218 3906</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50475238.jpg</t>
+  </si>
+  <si>
+    <t>IRER — Küuchenmodur — Knoxhult hellgrau, neuwertig, extras, 1.20x 90X60, Selbstabbau, 250.— € + 4 IKEA Pax Schranktüren, neuwertig, graugrün,100.— € — mit | Scharnier. Tel. 0173 1578822</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50470264.jpg</t>
+  </si>
+  <si>
+    <t>Verkaufe versch. Haumateriaten, Betonmischmaschine 30€, Wand: liesen weiß, Terracottaflesen Bo den, Kleber, 5 Schaltafein 10€, 6 Hotzeielen 4,50m x 27om x 4,5om, 10 01 797 83 96 38</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50470263.jpg</t>
+  </si>
+  <si>
+    <t>Hechsler Terra.Wut4000: Benzi ner, 4,8P8 Honda Motor, neuwertig bis Astgr. GOmm VB 2.000 €  Tel: 0179 / 7 83 9638</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50467094.jpg</t>
+  </si>
+  <si>
+    <t>Damen— und Herrenrad, 5 J. al, NP je 600 €, VB je 140€,</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50469262.jpg</t>
+  </si>
+  <si>
+    <t>EloXtrischer Latfenrost 190 x 40 cm incl. Matratze (neuwertig) 120, € stabller Nova Rollator fallbar mit Stockhalter und Schirm 100,— €, In os unter Tel. 07195/8008</t>
+  </si>
+  <si>
+    <t>1. 2 gut erhaltene Matratzen&amp;comma; 1&amp;comma;00 x 2&amp;comma;00 m&amp;comma; H3 und H2&amp;comma; VHB 120 € Tel&amp;period; 07127 / 34039</t>
+  </si>
+  <si>
+    <t>2. Teichfolie neu&amp;period; Ideal zum Brennholz abdecken&amp;comma; NP / m²&amp;comma; 2&amp;comma;50 €&amp;comma;VP 1&amp;comma;80 € oder ganze Rolle /200m² NP 500 €&amp;comma; VP 330 € &amp;period; Tel&amp;period; 0160 / 6932567</t>
+  </si>
+  <si>
+    <t>3. Motorsäge HUSQVARNA 3402&amp;comma;7 PS&amp;comma; VB 190 € sowie 2 Akku&amp;dash;Schrauber ( 1x Würth / 1 x Metabo) je 12 Volt&amp;comma; Preis VS&amp;period; Tel&amp;period; 0160 / 6932567</t>
+  </si>
+  <si>
+    <t>4. Moderne Stehlampe&amp;comma; silbermetallic&amp;comma; 5&amp;dash;armig&amp;comma; originalverpackt&amp;comma; NP 229 € für 100 € Tel&amp;period; 07025 / 3755</t>
+  </si>
+  <si>
+    <t>5. 4 Kleiderspinde&amp;comma; 2&amp;dash;türig&amp;comma; Metall&amp;comma; lichtgrau&amp;comma; H/B/T&amp;comma; 180/60/50cm&amp;comma; 4 Spinde m&amp;period; Fachböden u&amp;period; Aufsatz&amp;comma;1 Spind als Putzschrank&amp;comma; Gesamtpreis 250 €&amp;comma; Tel&amp;period; 0171 / 8307352</t>
+  </si>
+  <si>
+    <t>6. Militaria&amp;comma; Instrumente&amp;comma; Spielzeug&amp;comma; Schreib/Nähmaschine&amp;comma; evtl&amp;period; kompl&amp;period; Haushaltsauflösung&amp;comma; einfach alles anbieten&amp;comma; Tel&amp;period; 0151 / 66876095</t>
+  </si>
+  <si>
+    <t>Anzeigensuche - Pforzheimer Zeitung</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600762_250_orgorg_5d3dcdfa8d2e5.jpg</t>
+  </si>
+  <si>
+    <t>Vitrine L 1,20 m, H 2,20 , VB € 180,— Tel. 0176/41174664</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603680_249_orgorg_5d3dce2a2eb89.jpg</t>
+  </si>
+  <si>
+    <t>Couchtisch Nussbaum  neuw., höhenverstellb., 110 x 70 cm, € 150,—, Tel. 07231/5895554</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603671_249_orgorg_5d3dce282c33f.jpg</t>
+  </si>
+  <si>
+    <t>Damen—Fahrrad  mit Helm und Zubehör, Preis: VHS Tel. (0 72 31) 63241</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603653_249_orgorg_5d3dce22cab0d.jpg</t>
+  </si>
+  <si>
+    <t>sehr gt. erhalten. Besteht aus meh— reren Elementen. Alle Teile aus Massiv—Echtholz.Nähere Informati— onen telefonisch. € 600,— T. 0172— 1378138 (auch SMS möglich)</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603650_249_orgorg_5d3dce2218534.jpg</t>
+  </si>
+  <si>
+    <t>*  Sofa-Sitzgarnitur  aus Leder (ohne Tisch) zu verkaufen Besteht aus Eck—Sitzgarnitur, 1 Ein— zelsessel ohne Armlehnen, 1 Einzel— sessel mit Armlehnen, 1 Sitzhocker, € 500,— Tel. 0172—1378138 (auch SMS möglich)</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603641_249_orgorg_5d3dce20480d0.jpg</t>
+  </si>
+  <si>
+    <t>BOSCH Spülmasch. A++  wg. Umzug zvk, 4 Jahre alt, kaum be— nutzt, B 60cm, Unterbaufähig (EBK). Telefon 01 63 / 76 43 03 6</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603638_249_orgorg_5d3dce1f93e36.jpg</t>
+  </si>
+  <si>
+    <t>mt = tee as  Verkaufe Roller/Scooter Peugeot Speedfight 2, Leistung: 9,5 PS, km—Stand 2873 km, 1 Zy— linder 2—Takler, fahrbereit, VB €  690,—, Privatanbieter Remchingen. Telefon 07232 / 71448</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603626_249_orgorg_5d3dce1b673cb.jpg</t>
+  </si>
+  <si>
+    <t>Rasentraktor defekt  Aufsitzmäher Yard—Man in Neuhau— sen an Bastler € 250,—. Telefon 01 76 / 51 17 40 14</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603617_249_orgorg_5d3dce1996160.jpg</t>
+  </si>
+  <si>
+    <t>Neuwert. Gleichrichter für Solaranlage FSP Solar PowerMa—  nager PM—OffGrid 3K—24 zu verk. Anfrage per Mail an: Manfred.Nonnnenmann@gmx.de Telefon 07235/8411</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603545_249_orgorg_5d3dce0990ad7.jpg</t>
+  </si>
+  <si>
+    <t>Neue Massageliege  70 x 190 cm, Kopfteil verstellbar. Tel. 0173 — 4709217</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603536_249_orgorg_5d3dce070d214.jpg</t>
+  </si>
+  <si>
+    <t>Stahlträger  6,00 m lang, 30 cm hoch und 15 cm  breit, preisgünstig zu verkaufen. Tel. 0160 — 1800134</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603533_249_orgorg_5d3dce0674353.jpg</t>
+  </si>
+  <si>
+    <t>Marktschirm © 3,00 m  Leichtaufbau mit Kurbeltechnik‚Preis: VHS Tel. 0176 / 7456 0249</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603506_249_orgorg_5d3dcdffa60d2.jpg</t>
+  </si>
+  <si>
+    <t>Golf Besteck,  Standbag schwarz, Silverline: Big Bird 1,3,5, Eisen 4—9, P, S, Putter,  bis auf Probeschläge nicht genutzt, VB € 160,—, MADLER Überseekoffer 105x60x62, um 1920, Instandset—  zungbedarf, VB € 100,—,  2 Karl Baisch Koffer für 280 SEL 3,5 85x50x21, ca. 1980, Originalzube— hör, VB € 75,— IBM Kugelkopf 1981 VB € 60,— u.v.a.m.  Telefon 07043—950562</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603503_249_orgorg_5d3dcdfeee1e4.jpg</t>
+  </si>
+  <si>
+    <t>Profi—Zelt 3,3 x 4,8 m  PVC 550 g/m?, 3 Mon. alt, leichte Gebr.—Spuren, NP € 550,— VHB € 350,— Tel. 0172 — 8747452</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600755_250_orgorg_5d3dcdfb418c6.jpg</t>
+  </si>
+  <si>
+    <t>Sidebord m. Spiegel L ca. 2 m, , VB € 270,— Tel. 0176/41174664</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600753_250_orgorg_5d3dcdf8851f2.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt  am Sa., 27. 7., ab 10 Uhr, Landhaus— str. 26/1, Straubenhardt—Conweiler, Möbel, Haushaltswaren, Elektroarti— kel, Kleidung...</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600765_250_orgorg_5d3dcdf19ecc6.jpg</t>
+  </si>
+  <si>
+    <t>Gut erh. stabil. Alu—E—Bike (Filyer) gesundheitsh. für VB€ 790,— zu verkaufen. Tel. (0 72 34) 8539</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599333_251_orgorg_5d3dcde190bd5.jpg</t>
+  </si>
+  <si>
+    <t>Klappgarage,  zweiseitig flexibel grau, L= 6,1 m , B= 2,5 m, H= 2,0 m, VP: € 1000,—, Telefon 07041/941506</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5185/2592611_254_orgorg_5d3dcdd8c2522.jpg</t>
+  </si>
+  <si>
+    <t>MARDER—Holzfalle  Lebendfalle auch f. Ratten zu verk. Telefon 01 73 / 95 28 17 4</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600765_248_orgorg_5d3dc946c9ddb.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600762_225_orgorg_5d3d9363c4bb3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600755_228_orgorg_5d3d9a6950e6f.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599337_2_orgorg_5d37941e62218.jpg</t>
+  </si>
+  <si>
+    <t>Elektro—Roller  NW, ca. 10 km gefahren, EZ 03/18, Rolektro eco—Fun 20 Special Edition, Scheibenbremsen vorne u. hinten. 500 Watt, 36 V —12 AH Akku, Ge— samtgewicht 150 kg, Leergewicht 46,5 kg. NP € 810,— Preis € 550,—. Telefon 0152/01307493</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599347_2_orgorg_5d37941c2324e.jpg</t>
+  </si>
+  <si>
+    <t>Holzspalter  Super 780 Öler mit Starkstrom, € 300. Telefon 07231/471638</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599332_2_orgorg_5d379418d13f8.jpg</t>
+  </si>
+  <si>
+    <t>Wegen Lagerräumung zu verkaufen Fräsmaschinen MAHO MH 500 MH 600, Hermle UWF 89 Mikron WF 31 C, KUNZMANN VF 6/1,  Weiler Mechamikerdrehbänke Schaublin 102 N Flachschleifmaschine BROWN &amp; SHARPE,  Stähleschleifmaschine REMA DS 07 / ST, Schraubstücke, Werkzeughalter www.bachmachines.de Telefon 07236—981 205 Mobil 0171—754 59 11</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599328_2_orgorg_5d37940803b74.jpg</t>
+  </si>
+  <si>
+    <t>Kawai Klavier  mit 3 Pedalen. Sehr gut erhalten Bau— jahr Mitte 90 Jahre für € 950,—. Telefon 01 76 / 22 21 97 68</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599380_2_orgorg_5d379405a0247.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf  am 20.07.19 und 27.07.19: Antike Möbel, Gebrauchtmöbel, Reste der Schreinerei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichel— berg, Kirchweg 4, von 10 bis 19 Uhr. Telefon 0172/2904292</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599307_251_orgorg_5d3dcdd82414b.jpg</t>
+  </si>
+  <si>
+    <t>Sperrmüllabfuhr Entrümpelungen auch Kleinmengen.  Tel. 0173/ 9852717</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/4559/2279948_509_orgorg_5d3dcdcfdc234.jpg</t>
+  </si>
+  <si>
+    <t>Umbauarbeiten aller Art  Meldendiet e e</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5055/2527737_306_orgorg_5d3dcdd38797b.jpg</t>
+  </si>
+  <si>
+    <t>Sperrmüllabfuhr Entrümpelungen preiswert und schnell  auch kleine Mengen  07041—41153 oder 07231—7 768626 0151—14369217</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5055/2527733_309_orgorg_5d3dcdd4a3869.jpg</t>
+  </si>
+  <si>
+    <t>Floh—Laden. com®  Inh. Jens Huthmacher  Demontage — Rückbau — Entrümpelung Gebrauchtmöbel — Haushaltsauflösung  Maximilianstraße 98 + 75172 Pforzheim  WhatsApp: 01717 38 82 46 Telefon: 07231 / 607 80 14 E—Mail: _ kontakt2016@floh—laden.com</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5185/2592602_255_orgorg_5d3dcdcaba23e.jpg</t>
+  </si>
+  <si>
+    <t>Arbeit gesucht ! Pflaster—, Maurer—, Maler—, Tapezier—, Fliesenlege— und Lami— natarbeiten sowie Gartenarbeiten aller Art, schnellu. günstig. 01 77 / 9801893</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5089/2544723_294_orgorg_5d3dcdd67c732.jpg</t>
+  </si>
+  <si>
+    <t>Entrümpelung  Wohnungsauflösung, Entrümpelun—  gen aller Art, für gewerblich u. privat Telefon 0 72 31 / 41 77 72</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598113_251_orgorg_5d3dcdcba04e3.jpg</t>
+  </si>
+  <si>
+    <t>SUCHE FAHRRAÄDER  Suche geb. Fahrräder, Mofa und Rol—  lers kostenlos oder bis 10 Euro. Telefon 01 76 / 60 96 95 38</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5057/2528534_306_orgorg_5d3dcdd5b5b58.jpg</t>
+  </si>
+  <si>
+    <t>SORGLOS  ENTSvwRGT  Günstige Preise durch Wertanrechnung  «—Haushaltsauflösungen  »Entrümpelungen :—Messiwohnungen  Rufen Sie uns kostenfrei an!  0800 — 407 408 409</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5101/2550786_289_orgorg_5d3dcdd709015.jpg</t>
+  </si>
+  <si>
+    <t>_ Feinteco Dienstleistungen Haussanierung (innen und außen komplett),  Wände umbauen, Drainage, Abbrucharbeiten, Außenanlage  Telefon 07231/45507 11</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/4527/2263601_529_orgorg_5d3dcdce10ff7.jpg</t>
+  </si>
+  <si>
+    <t>Baum und Garten M  + Heckenschnitt + Wurzelstockentfernung  + Baumfällarbeiten _ « Grundstückspflege !  Tel. (07231) 68281 od. 0170/3111895 pkbaumfaell@web.de gewerbl.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598123_252_orgorg_5d3dcddea9df8.jpg</t>
+  </si>
+  <si>
+    <t>UB B 1 B 3 R 37 B 1 KF E°  bE ine = — ARK  &amp;  2 &amp;+ 34 P £  3. Straubenhardter Trödellust mit Hocketse 27.07.2019 von 9—18 Uhr Landhausstraße 1—12 und rund um die Martinskirche Preis pro Ifm Stand 5€  Kinder mit Spielsachen gratis Information und Anmeldung  hanspeter _ weidner@yahoo.de Telefon 0 70 82 / 49 07 32</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598144_252_orgorg_5d3dcdccd3e4c.jpg</t>
+  </si>
+  <si>
+    <t>Dacharbeiten — Dachreparaturen aller Art, Ziegel— austausch, Trockenfirst, Dämmung,  Garagen und Flachdachabd. Telefon 0176—44404168</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600752_250_orgorg_5d3dcdf694ea8.jpg</t>
+  </si>
+  <si>
+    <t>Gartenpflege  Hecken u. Bäume schneiden, Rasen— mähen, Telefon 0173—9 8527 17</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5206/2603494_249_orgorg_5d3dcdf7aec13.jpg</t>
+  </si>
+  <si>
+    <t>Sonnénßankv  Solarium Hapro Topaz 24/1 C Zu— stand: Gebraucht. LxBxH (in cm) 187 x 88 x 93; Bräunungsfläche in cm 180 x 75; 24/1 Lampen — 12 Oberteil — 8x 100 W/4x80W, 12 Unterteil je 100 W, Gesichtsbräu— ner 1x280W; Zeitschaltuhr, Schutz— brille, Acrylscheibe, Reflector, Bau— jahr 2013, wenig benutzt, daher fast wie neu, nur Barzahlung bei Abholung VB € 940 Euro (NP ca.  € 2200,—) Tel. 01 51—19 6909 14</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603578_249_orgorg_5d3dce107a7f5.jpg</t>
+  </si>
+  <si>
+    <t>Wasserball—Fanclub 1. BSC Pforz— heim e.V. Der Verein ist aufgelöst. Sei— ne Gläubiger — werden aufgefordert, sich bei diesem zu melden. Die Liqui— datoren sind: Alexander Müller, Grün— str. 20, 75334 Straubenhardt/Reiner Nachtrieb, August—Kayser—Str. 31,  7 5175 Pforzheim.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603599_249_orgorg_5d3dce16052f3.jpg</t>
+  </si>
+  <si>
+    <t>Su. für meinen Mann  Pflegebedürftig (kein schwerer pfle—  gefall im elekt. Rollstuhl) eine Person,  die mit ihm 2x die Woche spazieren eht. Evtl. in meiner Abwesenheit 10—14 Tage) eine Vollzeitbetreuung  macht.  2 unter Nr. A 47075 an die PZ.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5207/2603710_249_orgorg_5d3dce30ba3d4.jpg</t>
+  </si>
+  <si>
+    <t>Erledige  Elektriker Arbeiten, jeglicher Art Tel. 0176/63178048</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599346_2_orgorg_5d3794149418a.jpg</t>
+  </si>
+  <si>
+    <t>Wer verschenkt  Flohmarktartikel außer Kleidung. 07231/33881 od. 0160/6319985</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598144_192_orgorg_5d3d412f3479a.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599307_247_orgorg_5d3dc47a519a0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5055/2527737_291_orgorg_5d3daaae580b3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,21 +694,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -370,60 +995,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row customHeight="1" ht="210" r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -16,11 +16,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+  <si>
+    <t>Esslinger Zeitung</t>
+  </si>
+  <si>
+    <t>Plochingen 24.8., Haushaltsauflösung von 10-16 Uhr Im Burris 8. Verkaufen Bilder, Porzellan, Geschirr, Tupperware, Haushaltswaren, Holz-Möbel, Sitzgarnituren, Stühle, Glaswaren, Mäntel/ Pelze, Gobelin, Häkeldeckchen, Bettwäsche, altes Werkzeug, Metallwaren, Lampen, Teppiche usw.</t>
+  </si>
+  <si>
+    <t>Schwäbisches Tagblatt</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-in-Tuebingen-Alles-muss-raus-Z-01525-v5-w1024-h-m136487.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung in Tübingen Alles muss raus. &amp; 01525—5754993</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-v5-w1024-h-m136467.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung, 31.8., TU—West, Dürrstr. 35, v. 11 bis 17 Uhr. Kleinmöbel, Haushaltswaren, Lampen, Antikes, orig. Lithographien, orig. Drucke u.v.m.</t>
+  </si>
+  <si>
+    <t>Waiblinger Wochenblatt</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50521538.jpg</t>
+  </si>
+  <si>
+    <t>Antiker Garagenflohmart &amp; bei, Stühle, Vertiko, Schränke etc. Tel.: 017219808446</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50521474.jpg</t>
+  </si>
+  <si>
+    <t>Scheunenflohmarkt Deko— und Geschenkartikel, Schulbedart Schreibwaren, täglich 9—18 Uhr Urichstt 73663 Berglen</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50517879.jpg</t>
+  </si>
+  <si>
+    <t>Flohmarkt wg Umzug in Auen— wald.Häfnersweg  6, am Freitag 23.8.von 11 bis 18 Uhr Verkauft und verschenkt werden Spielwaren, Be— kleidung sowie einzelne Möbelstü cke und Küchenschränke</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50521394.jpg</t>
+  </si>
+  <si>
+    <t>Garagentlohmarkt, Sa 24.08.18 Ostlandetr. 6, 73553 Alfdorf,  —16 Uhr ‚Hausrat, Kleinmöbel, Taschen, Verschiedenes</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50520397.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung div. Elekto geräte, Möbel, Küche, Werkzeuge vieles mehr Tel. 0151 /17 96 64 96</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50514603.jpg</t>
+  </si>
+  <si>
+    <t>Bartentronmarkt für Sroß und Klein, bei einer Tasse Kaffee am So 25.08.19, 10—16 Uhr Jakob—Schüle— Str. 78 (Zugang über Hölderins— weg) Plüderhausen</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50509806.jpg</t>
+  </si>
+  <si>
+    <t>WMohnungsauflösung 2. Versuch, alles zu verschenken, 24.08.19, 09.00 — 13.00 Uhr, Schilerstr. 12. 71384 Schnait</t>
+  </si>
+  <si>
+    <t>Pforzheimer Zeitung</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5264/2632111_1_advertsearch_5d5c7e53bf96b.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf am Samstag 24.08. Antike Möbel, Gebrauchtmöbel, Reste der Schreine— rei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichelberg, Kirchweg 4, von 10 bis 19 Uhr. Telefon 0172—2904292</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5249/2624824_2_advertsearch_5d57384b06478.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf am Samstag 17.08. Antike Möbel, Gebrauchtmöbel, Reste der Schreine— rei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichelberg, Kirchweg 4, von 10 bis 19 Uhr. Telefon 0172—2904292</t>
+  </si>
+  <si>
+    <t>Südwestpresse</t>
+  </si>
+  <si>
+    <t>14) Praxisaufl&amp;#195;&amp;#182;sung (inkl. M&amp;#195;&amp;#182;bel), Samstag, 24.08.2019, 16 - 18 Uhr, Hans-Sachs-Str. 5, 74343 Sachsenheim, neue Praxis Nr. ab sofort # 0163 - 1734592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16) wegen Haushaltsaufl&amp;#195;&amp;#182;sung Samstag, 24.8.19 von 14-18 Uhr Bietigheim/Buch, Tulpenweg 24  </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,11 +151,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,27 +460,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:A26"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
